--- a/linux-kernel/ULK/process.xlsx
+++ b/linux-kernel/ULK/process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>linux早期进程</t>
   </si>
@@ -144,6 +144,156 @@
   <si>
     <t>例如current-&gt;signal-&gt;rlim[RLIMIT_CPU]表示当前进程占用cpu时间限制</t>
   </si>
+  <si>
+    <t>进程切换（或叫任务切换，上下文切换）</t>
+  </si>
+  <si>
+    <t>硬件上下文：是进程上下文的子集，是指CPU所有寄存器的一组数据</t>
+  </si>
+  <si>
+    <t>早起X86用far jump跳转到next进程TSS段cpu进行自动保存和加载硬件上下文，这部分都保存在TSS段中，每个进程都有子集的TSS段数据。</t>
+  </si>
+  <si>
+    <t>现在linux只为每个cpu建立一个TSS段，而进程硬件上下文存放在task-&gt;thread字段，其中包含大部分寄存器，但不包含eax，ebx这些通用寄存器，这个寄存器值保存在内核堆栈中</t>
+  </si>
+  <si>
+    <t>进程切换只发生在内核态，在执行进程切换之前，用户态所有寄存器都已经保存在内核堆栈上（包括ss，esp）</t>
+  </si>
+  <si>
+    <t>执行进程切换</t>
+  </si>
+  <si>
+    <t>1.切换页全局目录，即切换地址空间</t>
+  </si>
+  <si>
+    <t>2.切换内核态堆栈和硬件上下文</t>
+  </si>
+  <si>
+    <t>chedule是对进程进行调度的入口，其中有prev和next局部变量，内部调用switch_to(prev,next,prev)进行切换</t>
+  </si>
+  <si>
+    <t>switch_to(prev, next, last)</t>
+  </si>
+  <si>
+    <t>prev=a进程切换到next=b之后，下次a再次被调度时，又恢复了a的内核栈，所以prev的值还是a，这就错了，因为有可能是从c切换过来的。这时last输出参数就派上用场了，可以在a重新调度时，获得c的引用。</t>
+  </si>
+  <si>
+    <t>schedule() 伪代码</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>prev=a 其实就是当前</t>
+  </si>
+  <si>
+    <t>next=b 调度程序算出来的</t>
+  </si>
+  <si>
+    <t>switch_to(a,b,a)  这个里面会切换到b开始运行，cpu就不知道执行什么了。。。。但在此调度a时，输出参数里面会保存从哪个进程调度过来的，可能是c</t>
+  </si>
+  <si>
+    <t>继续执行a进程</t>
+  </si>
+  <si>
+    <t>可以获得c的引用</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>创建进程</t>
+  </si>
+  <si>
+    <t>父进程创建子进程拷贝所有地址空间，而之后执行exec又清楚地址空间，非常低效。</t>
+  </si>
+  <si>
+    <t>写时复制技术，子进程拷贝页表后，有自己独立空间，但物理页公用读，当写时候，复制页，更新页表项。</t>
+  </si>
+  <si>
+    <t>轻量级进程，允许共享父进程很多东西，如地址空间，数据结构，打开文件等</t>
+  </si>
+  <si>
+    <t>vfork，共享地址空间，阻塞父进程，直到exec或exit唤醒父进程。</t>
+  </si>
+  <si>
+    <t>clone系统调用 sys_clone是最底层复制task_struct的方法，本身没有什么执行函数等参数。</t>
+  </si>
+  <si>
+    <t>其调用内核do_fork方法，do_fork调用copy_process来辅助创建进程描述符和所需其他数据结构。</t>
+  </si>
+  <si>
+    <t>C语言库中的clone是clone系统调用的封装，可以传入fn函数地址进行轻量级进程创建。</t>
+  </si>
+  <si>
+    <t>fork和vfork系统调用也是系统调用clone实现的</t>
+  </si>
+  <si>
+    <t>创建内核线程：kernel_thread函数，本身也是调用do_fork</t>
+  </si>
+  <si>
+    <t>进程0是祖先进程idle进程，是内核开始阶段，用静态数据初始化的。所有其他进程都是动态初始化的。</t>
+  </si>
+  <si>
+    <t>start_kernel函数初始化需要的内核所有数据结构，激活中断，创建1进程，init</t>
+  </si>
+  <si>
+    <t>当调度程序选择init时，执行init函数</t>
+  </si>
+  <si>
+    <t>撤销进程</t>
+  </si>
+  <si>
+    <t>用户显试调用exit</t>
+  </si>
+  <si>
+    <t>C语言插入到main函数执行后的，最后一句代码exit</t>
+  </si>
+  <si>
+    <t>用户进程接受到一个不可忽视信号</t>
+  </si>
+  <si>
+    <t>内核代表用户进程执行时发生不可恢复异常</t>
+  </si>
+  <si>
+    <t>系统调用：</t>
+  </si>
+  <si>
+    <t>exit_group 这个是结束线程组（主要有do_exit_group函数实现），c语言中的exit使用的系统调用</t>
+  </si>
+  <si>
+    <t>exit 这个是结束一个task（主要有do_exit函数实现），也就是一个线程。线程库中的pthread_exit所使用。</t>
+  </si>
+  <si>
+    <t>do_group_exit</t>
+  </si>
+  <si>
+    <t>检查并设置current-signal-&gt;grpu_exit_code退出码</t>
+  </si>
+  <si>
+    <t>像所有组内进程发出退出信号，这个过程是通过查找hash表得到的组内进程表。</t>
+  </si>
+  <si>
+    <t>调用do_exit把退出码传递给它</t>
+  </si>
+  <si>
+    <t>do_exit</t>
+  </si>
+  <si>
+    <t>清除自己资源，包括内存，信号。。。</t>
+  </si>
+  <si>
+    <t>通知父进程找收养者，来进行后续收尸工作</t>
+  </si>
+  <si>
+    <t>调用schedule，switch_to之后，再也不执行。</t>
+  </si>
+  <si>
+    <t>进程删除：</t>
+  </si>
+  <si>
+    <t>最后由养父进行清理后世，删掉task结构和threadinfo结构以及内核栈</t>
+  </si>
 </sst>
 </file>
 
@@ -151,9 +301,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -179,23 +329,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,17 +361,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,14 +406,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,24 +435,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,28 +466,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -338,13 +488,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,19 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,13 +560,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,55 +626,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,19 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,37 +662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,20 +682,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,17 +727,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,17 +762,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,148 +784,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1623,13 +1773,9 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="900"/>
-            <a:t>pid</a:t>
+            <a:t>pid_hash</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="900"/>
-            <a:t>_hash</a:t>
-          </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1785,10 +1931,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="900"/>
             <a:t>0</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1936,7 +2082,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="900"/>
             <a:t>tgid</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
@@ -1944,10 +2090,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="900"/>
             <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2095,7 +2241,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="900"/>
             <a:t>pgid</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
@@ -2103,10 +2249,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="900"/>
             <a:t>2</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2254,7 +2400,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="900"/>
             <a:t>sid</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
@@ -2262,10 +2408,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="900"/>
             <a:t>3</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2571,10 +2717,10 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="900"/>
+              <a:rPr lang="en-US" altLang="en-US" sz="900"/>
               <a:t>tgid哈希表</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2943,10 +3089,10 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="1100"/>
+              <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
               <a:t>task_struct</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3970,10 +4116,10 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="" altLang="en-US" sz="900"/>
+                  <a:rPr lang="en-US" altLang="en-US" sz="900"/>
                   <a:t>nr=4351</a:t>
                 </a:r>
-                <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+                <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
@@ -4115,10 +4261,10 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="" altLang="en-US" sz="900"/>
+                  <a:rPr lang="en-US" altLang="en-US" sz="900"/>
                   <a:t>pid_chain</a:t>
                 </a:r>
-                <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+                <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
@@ -4261,13 +4407,9 @@
                 <a:pPr algn="l"/>
                 <a:r>
                   <a:rPr lang="en-US" altLang="en-US" sz="900"/>
-                  <a:t>pid_</a:t>
+                  <a:t>pid_list</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="" altLang="en-US" sz="900"/>
-                  <a:t>list</a:t>
-                </a:r>
-                <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+                <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
@@ -8615,13 +8757,9 @@
                 <a:pPr algn="l"/>
                 <a:r>
                   <a:rPr lang="en-US" altLang="en-US" sz="900"/>
-                  <a:t>nr=</a:t>
+                  <a:t>nr=246</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="" altLang="en-US" sz="900"/>
-                  <a:t>246</a:t>
-                </a:r>
-                <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+                <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
@@ -9276,12 +9414,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="900"/>
-              <a:t>pid</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" altLang="en-US" sz="900"/>
-              <a:t>哈希表</a:t>
+              <a:t>pid哈希表</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
           </a:p>
@@ -9641,13 +9775,9 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="900"/>
-            <a:t>nr=</a:t>
+            <a:t>nr=157</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="900"/>
-            <a:t>157</a:t>
-          </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10190,10 +10320,10 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="1100"/>
+              <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
               <a:t>wait_queue_head_t</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -10335,10 +10465,10 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="900"/>
+              <a:rPr lang="en-US" altLang="en-US" sz="900"/>
               <a:t>spinlock</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -10480,10 +10610,10 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="900"/>
+              <a:rPr lang="en-US" altLang="en-US" sz="900"/>
               <a:t>tasklist</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -10798,10 +10928,10 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="900"/>
+              <a:rPr lang="en-US" altLang="en-US" sz="900"/>
               <a:t>task*</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -11088,10 +11218,10 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="900"/>
+              <a:rPr lang="en-US" altLang="en-US" sz="900"/>
               <a:t>flag</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -11233,10 +11363,10 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="900"/>
+              <a:rPr lang="en-US" altLang="en-US" sz="900"/>
               <a:t>waitqueue_func</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -12473,10 +12603,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:AC114"/>
+  <dimension ref="B3:AC180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="AU96" sqref="AU96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.14285714285714" defaultRowHeight="11.25"/>
@@ -12718,6 +12848,256 @@
         <v>42</v>
       </c>
     </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4">
+      <c r="D128" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5">
+      <c r="E130" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5">
+      <c r="E131" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5">
+      <c r="E134" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5">
+      <c r="E135" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4">
+      <c r="D136" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4">
+      <c r="D148" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4">
+      <c r="D167" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4">
+      <c r="D168" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4">
+      <c r="D170" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="171" spans="5:5">
+      <c r="E171" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="172" spans="5:5">
+      <c r="E172" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="173" spans="5:5">
+      <c r="E173" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4">
+      <c r="D174" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="175" spans="5:5">
+      <c r="E175" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="176" spans="5:5">
+      <c r="E176" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5">
+      <c r="E177" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4">
+      <c r="D180" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
